--- a/result/Action Credit Agricole 0.8 Degressif MAI 2022- FR0014009S27result.xlsx
+++ b/result/Action Credit Agricole 0.8 Degressif MAI 2022- FR0014009S27result.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Natixis</t>
+          <t>BNP</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trimestre</t>
+          <t>jours</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95.0</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>degressif</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>0.55% environ% environ</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40.0</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29/05/2023, 28/08/2023, 27/11/2023, 27/02/2024, 27/05/2024, 27/08/2024, 27/11/2024, 27/02/2025, 27/05/2025, 27/08/2025, 27/11/2025, 27/02/2026, 27/05/2026, 27/08/2026, 27/11/2026, 01/03/2027, 27/05/2027, 27/08/2027, 29/11/2027, 28/02/2028, 29/05/2028, 28/08/2028, 27/11/2028, 27/02/2029, 28/05/2029, 27/08/2029, 27/11/2029, 27/02/2030, 27/05/2030, 27/08/2030, 27/11/2030, 27/02/2031, 27/05/2031, 27/08/2031, 27/11/2031, 27/02/2032, 27/05/2032, 27/05/2032</t>
+          <t>Chaque jour de bourse entre le 29 mai 2023 (inclus) et le 27 mai 2032.</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/06/2023, 11/09/2023, 11/12/2023, 12/03/2024, 10/06/2024, 10/09/2024, 11/12/2024, 13/03/2025, 10/06/2025, 10/09/2025, 11/12/2025, 13/03/2026, 10/06/2026, 10/09/2026, 11/12/2026, 15/03/2027, 10/06/2027, 10/09/2027, 13/12/2027, 13/03/2028, 12/06/2028, 11/09/2028, 11/12/2028, 13/03/2029, 11/06/2029, 10/09/2029, 11/12/2029, 13/03/2030, 10/06/2030, 10/09/2030, 11/12/2030, 13/03/2031, 10/06/2031, 10/09/2031, 11/12/2031, 12/03/2032</t>
+          <t>Le 10e jour ouvré suivant la date de constatation quotidienne.</t>
         </is>
       </c>
     </row>

--- a/result/Action Credit Agricole 0.8 Degressif MAI 2022- FR0014009S27result.xlsx
+++ b/result/Action Credit Agricole 0.8 Degressif MAI 2022- FR0014009S27result.xlsx
@@ -575,7 +575,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jours</t>
+          <t>trimestre</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.55% environ% environ</t>
+          <t>0.55%%</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chaque jour de bourse entre le 29 mai 2023 (inclus) et le 27 mai 2032.</t>
+          <t>29/05/2023, 28/08/2023, 27/11/2023, 27/02/2024, 27/05/2024, 27/08/2024, 27/11/2024, 27/02/2025, 27/05/2025, 27/08/2025, 27/11/2025, 27/02/2026, 27/05/2026, 27/08/2026, 27/11/2026, 01/03/2027, 27/05/2027, 27/08/2027, 29/11/2027, 28/02/2028, 29/05/2028, 28/08/2028, 27/11/2028, 27/02/2029, 28/05/2029, 27/08/2029, 27/11/2029, 27/02/2030, 27/05/2030, 27/08/2030, 27/11/2030, 27/02/2031, 27/05/2031, 27/08/2031, 27/11/2031, 27/02/2032, 27/05/2032, 27/05/2032</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Le 10e jour ouvré suivant la date de constatation quotidienne.</t>
+          <t>12/06/2023, 11/09/2023, 11/12/2023, 12/03/2024, 10/06/2024, 10/09/2024, 11/12/2024, 13/03/2025, 10/06/2025, 10/09/2025, 11/12/2025, 13/03/2026, 10/06/2026, 10/09/2026, 11/12/2026, 15/03/2027, 10/06/2027, 10/09/2027, 13/12/2027, 13/03/2028, 12/06/2028, 11/09/2028, 11/12/2028, 13/03/2029, 11/06/2029, 10/09/2029, 11/12/2029, 13/03/2030, 10/06/2030, 10/09/2030, 11/12/2030, 13/03/2031, 10/06/2031, 10/09/2031, 11/12/2031, 12/03/2032</t>
         </is>
       </c>
     </row>
